--- a/Streak 3/Units and Buildings.xlsx
+++ b/Streak 3/Units and Buildings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Melee</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Warrior -2/2 (30H)</t>
   </si>
   <si>
-    <t>Spearman -2 (+100%vH) (50H)</t>
-  </si>
-  <si>
     <t>30 Turns</t>
   </si>
   <si>
@@ -64,33 +61,6 @@
   </si>
   <si>
     <t>60 Turns</t>
-  </si>
-  <si>
-    <t>Horse Archer (5/5) (150H)</t>
-  </si>
-  <si>
-    <t>Halberd (4/4) +100%vH (100H)</t>
-  </si>
-  <si>
-    <t>Archer (3/5) (100H) +Hills etc</t>
-  </si>
-  <si>
-    <t>Axeman - 4/4 (75H)</t>
-  </si>
-  <si>
-    <t>Long Swordsman (5/5) (100H)</t>
-  </si>
-  <si>
-    <t>Crossbow (6/3) (120H)</t>
-  </si>
-  <si>
-    <t>Knight (7/7) (1st Strike) &amp; Immune (200H)</t>
-  </si>
-  <si>
-    <t>Longbow (5/6) (120H) 1st Strike</t>
-  </si>
-  <si>
-    <t>Musketeer (7/7) (180H) 1st Strike</t>
   </si>
   <si>
     <t>Heavy Knight (9/9) (220H) 1st Strikes &amp; Immune</t>
@@ -223,6 +193,117 @@
   </si>
   <si>
     <t>Public Baths</t>
+  </si>
+  <si>
+    <t>Spearman 
+3/3, 1M, 40H
+(+20% v Mounted)
+Copper Weapons</t>
+  </si>
+  <si>
+    <t>Battering Ram
+1/1, 1M, 40H
+Can bonbard city (10%)
+No Pillaging
+No Defense Bonus
+No Happiness</t>
+  </si>
+  <si>
+    <t>Pikeman
+4/4, 1M, 70H
++40% v Mounted
+Copper + Iron Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Elephant
+7/7, 2M, 100H Limit: 3
+Ivory Required
+No Defense Bonus
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight
+10/8, 2M, 200H
+1 First Strike
++20% Archer
++10% Withdraw
+No Defense Bonus
+Requires Horse
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horseman
+4/4, 3M, 60H
+1 First Strike
++40% Archers
++20% Withdraw
+No Defense Bonus
+Requires Horse
+</t>
+  </si>
+  <si>
+    <t>Horse Archer
+6/6, 3M, 110H
+1 First Strike
++30% Withdraw
+No Defense Bonus
+Requires Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swordsman
+6/6, 1M, 110H
++10% City Attack
+Iron Only + Mithril Weapons
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axeman
+4/4, 1M, 60H
+Copper + Iron Weapons
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champion
+8/8, 1M, 200H
++10% v Melee
+Iron + Mithril Weapons 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longbowman
+4/7, 1M, 110H
++20% Hills, +20% City
+1 First Strike
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archer 
+3/5, 1M, 60H
++20% Hills, +20% City
+1 First Strike
+</t>
+  </si>
+  <si>
+    <t>Musketeer
+9/9, 1M, 220H
++20% City
+1 First Strike
+Requires Gunpowder</t>
+  </si>
+  <si>
+    <t>Marksman
+2
+Promotion Marksman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin
+4/2, 2M, 150H
++2 Poison
+1 First Strike
+Promotion Hidden
+Promotion Marksman
+Cannot Pillage / Take Over City
+</t>
   </si>
 </sst>
 </file>
@@ -246,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +364,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -397,15 +490,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,6 +548,33 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,166 +876,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="D2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
+      <c r="D7" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="61" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
+    </row>
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="D20" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -929,18 +1041,85 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="D31" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="E34" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
+      <c r="D37" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -960,309 +1139,309 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="H14" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="H15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="E18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="59">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="J18" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
